--- a/uploads/5a3adeba3e33240170cd61e5/5a6962f6e4cd632c58b25d86/floating_point_investor_report.xlsx
+++ b/uploads/5a3adeba3e33240170cd61e5/5a6962f6e4cd632c58b25d86/floating_point_investor_report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28203"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erbfamily/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23680" yWindow="480" windowWidth="22780" windowHeight="26640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -88,9 +88,6 @@
     <t>Floating Point Investor Report</t>
   </si>
   <si>
-    <t>https://img.bulawayo24.com/articles/Bitcoin.jpg</t>
-  </si>
-  <si>
     <t>RippleSideBinance</t>
   </si>
   <si>
@@ -218,12 +215,15 @@
   </si>
   <si>
     <t>www.dash.org</t>
+  </si>
+  <si>
+    <t>https://cdn.images.dailystar.co.uk/dynamic/122/photos/394000/900x738/780394.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -721,26 +721,26 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -748,7 +748,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -771,67 +771,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -848,18 +848,18 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="13">
         <v>43108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
@@ -873,87 +873,87 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13">
         <v>43123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12">
         <v>-119.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10">
         <v>-4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9">
         <v>43118</v>
@@ -962,68 +962,68 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="12">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10">
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9">
         <v>43119</v>
@@ -1032,68 +1032,68 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12">
         <v>24.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="10">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="9">
         <v>43119</v>
@@ -1102,70 +1102,70 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" s="12">
         <v>2496.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="12">
         <v>-44.935199999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="10">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="9">
         <v>43119</v>
@@ -1174,70 +1174,70 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="9">
         <v>43117</v>
@@ -1246,70 +1246,70 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="9">
         <v>43118</v>
@@ -1318,68 +1318,68 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
       </c>
       <c r="D49" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="12">
         <v>5.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="10">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="9">
         <v>43118</v>
@@ -1388,68 +1388,68 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D55" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="10">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="9">
         <v>43119</v>
@@ -1458,68 +1458,68 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="9">
         <v>43120</v>
@@ -1528,133 +1528,133 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
         <v>44</v>
-      </c>
-      <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>45</v>
       </c>
       <c r="D73" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" s="12">
         <v>-300</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" s="11">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
         <v>25</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
       </c>
       <c r="D76" s="9">
         <v>43122</v>

--- a/uploads/5a3adeba3e33240170cd61e5/5a6962f6e4cd632c58b25d86/floating_point_investor_report.xlsx
+++ b/uploads/5a3adeba3e33240170cd61e5/5a6962f6e4cd632c58b25d86/floating_point_investor_report.xlsx
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
-  <si>
-    <t>CB ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="64">
   <si>
     <t>Major Category</t>
   </si>
@@ -217,7 +214,19 @@
     <t>www.dash.org</t>
   </si>
   <si>
-    <t>https://cdn.images.dailystar.co.uk/dynamic/122/photos/394000/900x738/780394.jpg</t>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>Tab Name</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>https://www.ccn.com/wp-content/uploads/2016/10/free-bitcoins.jpg</t>
   </si>
 </sst>
 </file>
@@ -721,7 +730,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +746,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -750,210 +759,247 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
       <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="8">
         <v>13718.09</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13">
         <v>43108</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8">
         <v>14592.737614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="13">
         <v>43123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="12">
         <v>-119.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10">
         <v>-4.7800000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9">
         <v>43118</v>
@@ -962,68 +1008,85 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="10">
         <v>2.12E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9">
         <v>43119</v>
@@ -1032,68 +1095,85 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="12">
         <v>24.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9">
         <v>43119</v>
@@ -1103,69 +1183,85 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
       </c>
       <c r="D31" s="12">
         <v>2496.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="12">
         <v>-44.935199999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="10">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="9">
         <v>43119</v>
@@ -1175,69 +1271,85 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
       </c>
       <c r="D37" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="9">
         <v>43117</v>
@@ -1247,69 +1359,85 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
       </c>
       <c r="D43" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="9">
         <v>43118</v>
@@ -1318,68 +1446,85 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
         <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
       </c>
       <c r="D49" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="12">
         <v>5.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="10">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="9">
         <v>43118</v>
@@ -1388,68 +1533,85 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
         <v>43</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
       </c>
       <c r="D55" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="10">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="9">
         <v>43119</v>
@@ -1458,68 +1620,85 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
         <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
       </c>
       <c r="D61" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="9">
         <v>43120</v>
@@ -1528,133 +1707,167 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
         <v>26</v>
       </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
         <v>43</v>
-      </c>
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>44</v>
       </c>
       <c r="D73" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74" s="12">
         <v>-300</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D75" s="11">
         <v>-0.12</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
         <v>24</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
       </c>
       <c r="D76" s="9">
         <v>43122</v>
